--- a/output_data/charts/capacity-RossCounty-0500000US39141.xlsx
+++ b/output_data/charts/capacity-RossCounty-0500000US39141.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -295,7 +295,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>400000</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -513,7 +513,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11520</c:v>
+                  <c:v>11.52</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -850,7 +850,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3000</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -862,19 +862,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30000</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7300</c:v>
+                  <c:v>7.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62200</c:v>
+                  <c:v>62.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -883,25 +883,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>53500</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>51660</c:v>
+                  <c:v>51.66</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95100</c:v>
+                  <c:v>95.09999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>172160</c:v>
+                  <c:v>172.16</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>182260</c:v>
+                  <c:v>182.26</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>145300</c:v>
+                  <c:v>145.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91070</c:v>
+                  <c:v>91.06999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>30000</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>2013</v>
       </c>
       <c r="B15" s="2">
-        <v>400000</v>
+        <v>400</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>7300</v>
+        <v>7.3</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>62200</v>
+        <v>62.2</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>53500</v>
+        <v>53.5</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>51660</v>
+        <v>51.66</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>95100</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>172160</v>
+        <v>172.16</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2266,13 +2266,13 @@
         <v>0</v>
       </c>
       <c r="C24" s="2">
-        <v>11520</v>
+        <v>11.52</v>
       </c>
       <c r="D24" s="2">
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>182260</v>
+        <v>182.26</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <v>145300</v>
+        <v>145.3</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>91070</v>
+        <v>91.06999999999999</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-RossCounty-0500000US39141.xlsx
+++ b/output_data/charts/capacity-RossCounty-0500000US39141.xlsx
@@ -901,7 +901,7 @@
                   <c:v>145.3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>91.06999999999999</c:v>
+                  <c:v>175.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>91.06999999999999</v>
+        <v>175.68</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
